--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cfh-Sell.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cfh-Sell.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.573304666666666</v>
+        <v>0.5491146666666666</v>
       </c>
       <c r="H2">
-        <v>4.719913999999999</v>
+        <v>1.647344</v>
       </c>
       <c r="I2">
-        <v>0.0222793836237684</v>
+        <v>0.006868658684314029</v>
       </c>
       <c r="J2">
-        <v>0.0222793836237684</v>
+        <v>0.006868658684314029</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>74.89537566666667</v>
+        <v>0.09834766666666667</v>
       </c>
       <c r="N2">
-        <v>224.686127</v>
+        <v>0.295043</v>
       </c>
       <c r="O2">
-        <v>0.6660623326691122</v>
+        <v>0.2818566198948398</v>
       </c>
       <c r="P2">
-        <v>0.6660623326691123</v>
+        <v>0.2818566198948398</v>
       </c>
       <c r="Q2">
-        <v>117.8332440481198</v>
+        <v>0.05400414619911111</v>
       </c>
       <c r="R2">
-        <v>1060.499196433078</v>
+        <v>0.486037315792</v>
       </c>
       <c r="S2">
-        <v>0.0148394582268772</v>
+        <v>0.00193597691997209</v>
       </c>
       <c r="T2">
-        <v>0.0148394582268772</v>
+        <v>0.00193597691997209</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,46 +599,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.573304666666666</v>
+        <v>0.5491146666666666</v>
       </c>
       <c r="H3">
-        <v>4.719913999999999</v>
+        <v>1.647344</v>
       </c>
       <c r="I3">
-        <v>0.0222793836237684</v>
+        <v>0.006868658684314029</v>
       </c>
       <c r="J3">
-        <v>0.0222793836237684</v>
+        <v>0.006868658684314029</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>37.54961933333333</v>
+        <v>0.2505803333333333</v>
       </c>
       <c r="N3">
-        <v>112.648858</v>
+        <v>0.751741</v>
       </c>
       <c r="O3">
-        <v>0.3339376673308877</v>
+        <v>0.7181433801051602</v>
       </c>
       <c r="P3">
-        <v>0.3339376673308878</v>
+        <v>0.7181433801051602</v>
       </c>
       <c r="Q3">
-        <v>59.07699132869021</v>
+        <v>0.1375973362115556</v>
       </c>
       <c r="R3">
-        <v>531.6929219582119</v>
+        <v>1.238376025904</v>
       </c>
       <c r="S3">
-        <v>0.0074399253968912</v>
+        <v>0.004932681764341939</v>
       </c>
       <c r="T3">
-        <v>0.007439925396891202</v>
+        <v>0.004932681764341939</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>110.389662</v>
       </c>
       <c r="I4">
-        <v>0.5210717033819111</v>
+        <v>0.4602735740408745</v>
       </c>
       <c r="J4">
-        <v>0.5210717033819111</v>
+        <v>0.4602735740408745</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>74.89537566666667</v>
+        <v>0.09834766666666667</v>
       </c>
       <c r="N4">
-        <v>224.686127</v>
+        <v>0.295043</v>
       </c>
       <c r="O4">
-        <v>0.6660623326691122</v>
+        <v>0.2818566198948398</v>
       </c>
       <c r="P4">
-        <v>0.6660623326691123</v>
+        <v>0.2818566198948398</v>
       </c>
       <c r="Q4">
-        <v>2755.891735068786</v>
+        <v>3.618855227274</v>
       </c>
       <c r="R4">
-        <v>24803.02561561907</v>
+        <v>32.569697045466</v>
       </c>
       <c r="S4">
-        <v>0.3470662342424234</v>
+        <v>0.1297311538060782</v>
       </c>
       <c r="T4">
-        <v>0.3470662342424235</v>
+        <v>0.1297311538060782</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>110.389662</v>
       </c>
       <c r="I5">
-        <v>0.5210717033819111</v>
+        <v>0.4602735740408745</v>
       </c>
       <c r="J5">
-        <v>0.5210717033819111</v>
+        <v>0.4602735740408745</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>37.54961933333333</v>
+        <v>0.2505803333333333</v>
       </c>
       <c r="N5">
-        <v>112.648858</v>
+        <v>0.751741</v>
       </c>
       <c r="O5">
-        <v>0.3339376673308877</v>
+        <v>0.7181433801051602</v>
       </c>
       <c r="P5">
-        <v>0.3339376673308878</v>
+        <v>0.7181433801051602</v>
       </c>
       <c r="Q5">
-        <v>1381.696595478444</v>
+        <v>9.220492766838001</v>
       </c>
       <c r="R5">
-        <v>12435.269359306</v>
+        <v>82.984434901542</v>
       </c>
       <c r="S5">
-        <v>0.1740054691394876</v>
+        <v>0.3305424202347964</v>
       </c>
       <c r="T5">
-        <v>0.1740054691394876</v>
+        <v>0.3305424202347964</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.56572533333333</v>
+        <v>19.686315</v>
       </c>
       <c r="H6">
-        <v>43.69717599999999</v>
+        <v>59.058945</v>
       </c>
       <c r="I6">
-        <v>0.2062635351786761</v>
+        <v>0.2462483461017703</v>
       </c>
       <c r="J6">
-        <v>0.2062635351786761</v>
+        <v>0.2462483461017702</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>74.89537566666667</v>
+        <v>0.09834766666666667</v>
       </c>
       <c r="N6">
-        <v>224.686127</v>
+        <v>0.295043</v>
       </c>
       <c r="O6">
-        <v>0.6660623326691122</v>
+        <v>0.2818566198948398</v>
       </c>
       <c r="P6">
-        <v>0.6660623326691123</v>
+        <v>0.2818566198948398</v>
       </c>
       <c r="Q6">
-        <v>1090.905470697483</v>
+        <v>1.936103145515</v>
       </c>
       <c r="R6">
-        <v>9818.14923627735</v>
+        <v>17.424928309635</v>
       </c>
       <c r="S6">
-        <v>0.1373843713856865</v>
+        <v>0.06940672648693962</v>
       </c>
       <c r="T6">
-        <v>0.1373843713856865</v>
+        <v>0.06940672648693962</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,46 +847,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.56572533333333</v>
+        <v>19.686315</v>
       </c>
       <c r="H7">
-        <v>43.69717599999999</v>
+        <v>59.058945</v>
       </c>
       <c r="I7">
-        <v>0.2062635351786761</v>
+        <v>0.2462483461017703</v>
       </c>
       <c r="J7">
-        <v>0.2062635351786761</v>
+        <v>0.2462483461017702</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>37.54961933333333</v>
+        <v>0.2505803333333333</v>
       </c>
       <c r="N7">
-        <v>112.648858</v>
+        <v>0.751741</v>
       </c>
       <c r="O7">
-        <v>0.3339376673308877</v>
+        <v>0.7181433801051602</v>
       </c>
       <c r="P7">
-        <v>0.3339376673308878</v>
+        <v>0.7181433801051602</v>
       </c>
       <c r="Q7">
-        <v>546.9374415805563</v>
+        <v>4.933003374805001</v>
       </c>
       <c r="R7">
-        <v>4922.436974225006</v>
+        <v>44.397030373245</v>
       </c>
       <c r="S7">
-        <v>0.06887916379298958</v>
+        <v>0.1768416196148307</v>
       </c>
       <c r="T7">
-        <v>0.0688791637929896</v>
+        <v>0.1768416196148306</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.68148033333334</v>
+        <v>22.91297966666667</v>
       </c>
       <c r="H8">
-        <v>53.04444100000001</v>
+        <v>68.738939</v>
       </c>
       <c r="I8">
-        <v>0.2503853778156445</v>
+        <v>0.2866094211730412</v>
       </c>
       <c r="J8">
-        <v>0.2503853778156445</v>
+        <v>0.2866094211730412</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,28 +927,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>74.89537566666667</v>
+        <v>0.09834766666666667</v>
       </c>
       <c r="N8">
-        <v>224.686127</v>
+        <v>0.295043</v>
       </c>
       <c r="O8">
-        <v>0.6660623326691122</v>
+        <v>0.2818566198948398</v>
       </c>
       <c r="P8">
-        <v>0.6660623326691123</v>
+        <v>0.2818566198948398</v>
       </c>
       <c r="Q8">
-        <v>1324.261111907779</v>
+        <v>2.253438086597445</v>
       </c>
       <c r="R8">
-        <v>11918.35000717001</v>
+        <v>20.280942779377</v>
       </c>
       <c r="S8">
-        <v>0.1667722688141251</v>
+        <v>0.08078276268184992</v>
       </c>
       <c r="T8">
-        <v>0.1667722688141252</v>
+        <v>0.08078276268184993</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.68148033333334</v>
+        <v>22.91297966666667</v>
       </c>
       <c r="H9">
-        <v>53.04444100000001</v>
+        <v>68.738939</v>
       </c>
       <c r="I9">
-        <v>0.2503853778156445</v>
+        <v>0.2866094211730412</v>
       </c>
       <c r="J9">
-        <v>0.2503853778156445</v>
+        <v>0.2866094211730412</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>37.54961933333333</v>
+        <v>0.2505803333333333</v>
       </c>
       <c r="N9">
-        <v>112.648858</v>
+        <v>0.751741</v>
       </c>
       <c r="O9">
-        <v>0.3339376673308877</v>
+        <v>0.7181433801051602</v>
       </c>
       <c r="P9">
-        <v>0.3339376673308878</v>
+        <v>0.7181433801051602</v>
       </c>
       <c r="Q9">
-        <v>663.9328557664866</v>
+        <v>5.741542082533223</v>
       </c>
       <c r="R9">
-        <v>5975.395701898378</v>
+        <v>51.673878742799</v>
       </c>
       <c r="S9">
-        <v>0.0836131090015193</v>
+        <v>0.2058266584911913</v>
       </c>
       <c r="T9">
-        <v>0.08361310900151932</v>
+        <v>0.2058266584911913</v>
       </c>
     </row>
   </sheetData>
